--- a/biology/Zoologie/Francolin/Francolin.xlsx
+++ b/biology/Zoologie/Francolin/Francolin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francolin est un nom vernaculaire ambigu désignant en français certains oiseaux de l'ordre des Galliformes et de la famille des Phasianidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré un décollage lourd, les francolins volent parfaitement, leur vol est même très rapide.
 </t>
@@ -542,7 +556,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe 41 espèces de francolins dans le monde dont 36 en Afrique. Parmi ces dernières, douze vivent en Afrique australe.
 </t>
@@ -573,7 +589,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le francolin a une alimentation mixte :
 végétale : principalement des graines cultivées, des graines d'herbes sauvages, des baies tombées, des tiges et des tubercules ;
@@ -605,9 +623,11 @@
           <t>Gibier</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les données archéologiques concernant les mets grecs anciens révèlent que le francolin était apprécié comme gibier en Grèce antique. Les saisons nous ramènent successivement les becfigues, […] et les francolins[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les données archéologiques concernant les mets grecs anciens révèlent que le francolin était apprécié comme gibier en Grèce antique. Les saisons nous ramènent successivement les becfigues, […] et les francolins.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Selon la classification du Congrès ornithologique international (version 2.7, 2010) et le CINFO:
 ordre alphabétique
